--- a/src/excel/login.xlsx
+++ b/src/excel/login.xlsx
@@ -371,7 +371,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
